--- a/biology/Botanique/Grand_Champion_(poire)/Grand_Champion_(poire).xlsx
+++ b/biology/Botanique/Grand_Champion_(poire)/Grand_Champion_(poire).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Grand Champion est une variété de poire.
 </t>
@@ -511,9 +523,11 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La variété a été obtenue aux États-Unis, en 1936. C'est une mutation de Gorham. L'arbre a été introduit en France par les établissements Delbard[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La variété a été obtenue aux États-Unis, en 1936. C'est une mutation de Gorham. L'arbre a été introduit en France par les établissements Delbard.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Arbre</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'arbre manque de vigueur[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'arbre manque de vigueur.
 </t>
         </is>
       </c>
@@ -573,12 +589,14 @@
           <t>Fruit</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le fruit est gros et de bonne qualité gustative[2].
-C'est un gros calibre, ovoïde, à l'épiderme bronze[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le fruit est gros et de bonne qualité gustative.
+C'est un gros calibre, ovoïde, à l'épiderme bronze.
 Chair d'excellente qualité, vraiment très fine (pas de grains), juteuse. Son goût est sucré, parfumé.
-Période de fructification : d'octobre à novembre[1].
+Période de fructification : d'octobre à novembre.
 </t>
         </is>
       </c>
